--- a/docs/calculations.xlsx
+++ b/docs/calculations.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="8895" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="1" r:id="rId1"/>
     <sheet name="555 Timer" sheetId="3" r:id="rId2"/>
     <sheet name="PWM" sheetId="4" r:id="rId3"/>
     <sheet name="Pins" sheetId="2" r:id="rId4"/>
+    <sheet name="Spacing" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>Vsupply</t>
   </si>
@@ -296,6 +297,54 @@
   <si>
     <t>A</t>
   </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Nixie OD</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Spacing,pair</t>
+  </si>
+  <si>
+    <t>Spacing,reg</t>
+  </si>
+  <si>
+    <t>Box Width</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>TIGHT</t>
+  </si>
+  <si>
+    <t>WIDE</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +356,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,16 +395,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -363,13 +443,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -380,10 +668,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,15 +799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>300939</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>102877</xdr:rowOff>
+      <xdr:colOff>500964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>277766</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>477791</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -510,7 +824,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4691964" y="3531877"/>
+          <a:off x="4891989" y="3084202"/>
           <a:ext cx="9120827" cy="4745348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -945,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1673,7 @@
         <v>43</v>
       </c>
       <c r="B16">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1370,7 +1684,7 @@
         <v>45</v>
       </c>
       <c r="B17">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1381,7 +1695,7 @@
         <v>46</v>
       </c>
       <c r="B18">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1392,8 +1706,8 @@
         <v>44</v>
       </c>
       <c r="B19" s="4">
-        <f>0.047*10^-6</f>
-        <v>4.6999999999999997E-8</v>
+        <f>4.7*10^-9</f>
+        <v>4.7000000000000007E-9</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1405,7 +1719,7 @@
       </c>
       <c r="B20" s="6">
         <f>B15*(B16+B17-B18)*B19</f>
-        <v>4.3239999999999997E-3</v>
+        <v>2.1663240000000003E-3</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1417,7 +1731,7 @@
       </c>
       <c r="B21" s="6">
         <f>B15*B18*B19</f>
-        <v>4.3239999999999997E-3</v>
+        <v>2.1620000000000003E-3</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -1429,7 +1743,7 @@
       </c>
       <c r="B22" s="3">
         <f>1/(B20+B21)</f>
-        <v>115.63367252543942</v>
+        <v>231.03630874213664</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1441,7 +1755,7 @@
       </c>
       <c r="B23" s="5">
         <f>B20/(B20+B21)</f>
-        <v>0.5</v>
+        <v>0.50049950049950054</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,7 +1799,7 @@
         <v>50</v>
       </c>
       <c r="B29">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1497,7 +1811,7 @@
       </c>
       <c r="B30">
         <f>B29*B28*2</f>
-        <v>120000</v>
+        <v>1200000</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1721,4 +2035,746 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="I2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="P2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="24">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="24">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="P3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="24">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="15" t="b">
+        <f>(C10-C9)=(C16-C15)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="15" t="b">
+        <f>(J10-J9)=(J16-J15)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="15" t="b">
+        <f>(Q10-Q9)=(Q16-Q15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="14"/>
+      <c r="P5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="13">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="14"/>
+      <c r="P6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>10</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="14"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="14"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="14"/>
+      <c r="P9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="17">
+        <f>C11-C$3-C$4</f>
+        <v>2.3125</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="11">
+        <f>INT(C10)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <f>C10-INT(C10)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="17">
+        <f>J11-J$3-J$4</f>
+        <v>1.6875</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="11">
+        <f>INT(J10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
+        <f>J10-INT(J10)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>Q11-Q$3-Q$4</f>
+        <v>2.75</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="11">
+        <f>INT(Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="T10" s="18">
+        <f>Q10-INT(Q10)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="17">
+        <f>C12-C$3-C$5</f>
+        <v>3.1875</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ref="E11:E15" si="0">INT(C11)</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <f>C11-INT(C11)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="17">
+        <f>J12-J$3-J$5</f>
+        <v>2.8125</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11:L15" si="1">INT(J11)</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="18">
+        <f>J11-INT(J11)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>Q12-Q$3-Q$5</f>
+        <v>3.5</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" ref="S11:S15" si="2">INT(Q11)</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="18">
+        <f>Q11-INT(Q11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="17">
+        <f>(C$6/2)-(C$4/2)-(C$3/2)</f>
+        <v>4.5625</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
+        <f>C12-INT(C12)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="17">
+        <f>(J$6/2)-(J$4/2)-(J$3/2)</f>
+        <v>4.4375</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="18">
+        <f>J12-INT(J12)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>(Q$6/2)-(Q$4/2)-(Q$3/2)</f>
+        <v>4.625</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="18">
+        <f>Q12-INT(Q12)</f>
+        <v>0.625</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C$6/2)+(C$4/2)+(C$3/2)</f>
+        <v>5.4375</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="18">
+        <f>C13-INT(C13)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="17">
+        <f>(J$6/2)+(J$4/2)+(J$3/2)</f>
+        <v>5.5625</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="18">
+        <f>J13-INT(J13)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>(Q$6/2)+(Q$4/2)+(Q$3/2)</f>
+        <v>5.375</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="18">
+        <f>Q13-INT(Q13)</f>
+        <v>0.375</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C13+C$3+C$5</f>
+        <v>6.8125</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="18">
+        <f>C14-INT(C14)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="17">
+        <f>J13+J$3+J$5</f>
+        <v>7.1875</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M14" s="18">
+        <f>J14-INT(J14)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>Q13+Q$3+Q$5</f>
+        <v>6.5</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T14" s="18">
+        <f>Q14-INT(Q14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="17">
+        <f>C14+C$3+C$4</f>
+        <v>7.6875</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="18">
+        <f>C15-INT(C15)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="17">
+        <f>J14+J$3+J$4</f>
+        <v>8.3125</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="18">
+        <f>J15-INT(J15)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>Q14+Q$3+Q$4</f>
+        <v>7.25</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T15" s="18">
+        <f>Q15-INT(Q15)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="20">
+        <f>C$6</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="I16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="20">
+        <f>J$6</f>
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="P16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="20">
+        <f>Q$6</f>
+        <v>10</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>